--- a/Python/403.xlsx
+++ b/Python/403.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutoTest\Python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>ctl00_holderLeft_txt_email</t>
   </si>
   <si>
+    <t>预期</t>
+  </si>
+  <si>
     <t>tip_email</t>
   </si>
   <si>
+    <t>P/F</t>
+  </si>
+  <si>
     <t>ctl00_holderLeft_txt_userName</t>
   </si>
   <si>
+    <t>预期.1</t>
+  </si>
+  <si>
     <t>tip_userName</t>
   </si>
   <si>
+    <t>P/F.1</t>
+  </si>
+  <si>
     <t>ctl00_holderLeft_txt_pwd</t>
   </si>
   <si>
+    <t>预期.2</t>
+  </si>
+  <si>
     <t>tip_pwd</t>
+  </si>
+  <si>
+    <t>P/F.2</t>
   </si>
   <si>
     <t>333@qq.com</t>
@@ -103,23 +126,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -134,26 +166,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -441,20 +490,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,128 +518,274 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(B2=C2,"P","F")</f>
+        <v>P</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H7" si="0">IF(F2=G2,"P","F")</f>
+        <v>P</v>
+      </c>
+      <c r="I2">
         <v>12345678</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="str">
+        <f t="shared" ref="L2:L7" si="1">IF(J2=K2,"P","F")</f>
+        <v>P</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3">
         <v>333</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D7" si="2">IF(B3=C3,"P","F")</f>
+        <v>P</v>
+      </c>
+      <c r="E3">
         <v>123566</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>P</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" si="1"/>
+        <v>P</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>P</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>P</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>P</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>P</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>P</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>P</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>P</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>P</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>P</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>P</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Python/403.xlsx
+++ b/Python/403.xlsx
@@ -1,75 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutoTest\Python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="10650"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
-  <si>
-    <t>ctl00_holderLeft_txt_email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+  <si>
+    <t>DisplayName</t>
   </si>
   <si>
     <t>预期</t>
   </si>
   <si>
-    <t>tip_email</t>
+    <t>DisplayName-error</t>
   </si>
   <si>
     <t>P/F</t>
   </si>
   <si>
-    <t>ctl00_holderLeft_txt_userName</t>
+    <t>Email</t>
   </si>
   <si>
     <t>预期.1</t>
   </si>
   <si>
-    <t>tip_userName</t>
+    <t>Email-error</t>
   </si>
   <si>
     <t>P/F.1</t>
   </si>
   <si>
-    <t>ctl00_holderLeft_txt_pwd</t>
+    <t>Password</t>
   </si>
   <si>
     <t>预期.2</t>
   </si>
   <si>
-    <t>tip_pwd</t>
+    <t>Password-error</t>
   </si>
   <si>
     <t>P/F.2</t>
   </si>
   <si>
-    <t>333@qq.com</t>
+    <t>不合要求，至少2个字符，最多30个字符!</t>
+  </si>
+  <si>
+    <t>不合要求，至少2个字符，最多20个字符!</t>
   </si>
   <si>
     <t>输入成功</t>
   </si>
   <si>
-    <t>叫什么</t>
-  </si>
-  <si>
-    <t>输入符合规则</t>
-  </si>
-  <si>
-    <t>必须包含字母、数字、特殊字符</t>
+    <t>密码必须包含字母、数字和特殊字符的组合!</t>
+  </si>
+  <si>
+    <t>````</t>
+  </si>
+  <si>
+    <t>登录用户名已被使用!</t>
+  </si>
+  <si>
+    <t>defafadf</t>
   </si>
   <si>
     <t>Email格式错误，请重新输入</t>
@@ -78,80 +79,50 @@
     <t>eeee45123</t>
   </si>
   <si>
+    <t>ddd123</t>
+  </si>
+  <si>
     <t>是什么</t>
   </si>
   <si>
-    <t>……%&amp;*</t>
-  </si>
-  <si>
     <t>哈哈哈</t>
   </si>
   <si>
-    <t>至少8个字符，最多30个字符</t>
-  </si>
-  <si>
     <t>what is</t>
   </si>
   <si>
-    <t>ddd123</t>
-  </si>
-  <si>
-    <t>"ddd123"已存在，请使用其它登录用户名</t>
-  </si>
-  <si>
-    <t>的123</t>
+    <t>123@d</t>
+  </si>
+  <si>
+    <t>不合要求，密码长度要求8-30位!</t>
   </si>
   <si>
     <t>#￥%</t>
   </si>
   <si>
-    <t>de_eeee升水</t>
-  </si>
-  <si>
     <t>#￥！</t>
-  </si>
-  <si>
-    <t>123444@163.com</t>
-  </si>
-  <si>
-    <t>暂不支持163邮箱</t>
-  </si>
-  <si>
-    <t>4343#@</t>
-  </si>
-  <si>
-    <t>4444发发发</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -166,43 +137,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -490,16 +444,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,255 +495,165 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="str">
-        <f>IF(B2=C2,"P","F")</f>
-        <v>P</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s"/>
+      <c r="E2" t="n">
+        <v>333</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="n">
+        <v>12334321</v>
+      </c>
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H7" si="0">IF(F2=G2,"P","F")</f>
-        <v>P</v>
-      </c>
-      <c r="I2">
-        <v>12345678</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
         <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" ref="L2:L7" si="1">IF(J2=K2,"P","F")</f>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>333</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D7" si="2">IF(B3=C3,"P","F")</f>
-        <v>P</v>
-      </c>
-      <c r="E3">
-        <v>123566</v>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="2"/>
-        <v>P</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>P</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
-        <v>P</v>
-      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>